--- a/Project_Development_Phase/Testing/User Acceptance Testing/Testcases Report.xlsx
+++ b/Project_Development_Phase/Testing/User Acceptance Testing/Testcases Report.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EC5698D-CBD4-4825-BA21-981F3EDD7EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopenzer Testcases" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Test case ID</t>
   </si>
@@ -61,21 +62,12 @@
     <t>Working as expected</t>
   </si>
   <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
     <t>UI</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>BUG-1234</t>
-  </si>
-  <si>
     <t>LoginPage_TC_OO2</t>
   </si>
   <si>
@@ -89,9 +81,6 @@
   </si>
   <si>
     <t>User should navigate to user account homepage</t>
-  </si>
-  <si>
-    <t>Steps are not clear to follow</t>
   </si>
   <si>
     <t>Executed By</t>
@@ -155,9 +144,6 @@
 d.Last password? Recovery password link</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -213,12 +199,15 @@
   <si>
     <t>PNT2022TMID24342</t>
   </si>
+  <si>
+    <t xml:space="preserve"> User should have good internet connectivity.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -469,7 +458,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -524,7 +513,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -579,7 +568,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,7 +623,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -689,7 +678,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -744,7 +733,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,7 +788,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +843,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -909,7 +898,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -964,7 +953,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,7 +1008,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1074,7 +1063,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1129,7 +1118,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,7 +1173,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1239,7 +1228,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1283,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1338,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1404,7 +1393,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,7 +1448,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1503,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1569,7 +1558,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1613,7 @@
         <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1679,7 +1668,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1799,9 +1788,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1833,6 +1840,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2008,40 +2033,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="14"/>
       <c r="E1" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" s="11">
         <v>44884</v>
@@ -2055,16 +2080,16 @@
       <c r="M1" s="13"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="16"/>
@@ -2075,16 +2100,16 @@
       <c r="M2" s="16"/>
       <c r="N2" s="17"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
@@ -2095,16 +2120,16 @@
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="20"/>
       <c r="E4" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="19"/>
@@ -2115,7 +2140,7 @@
       <c r="M4" s="19"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="28.95" customHeight="1">
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -2126,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
@@ -2156,12 +2181,12 @@
         <v>11</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="57.6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -2170,209 +2195,218 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="115.2">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="72">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="72">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1">
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:14" s="3" customFormat="1">
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:14" s="3" customFormat="1">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="8:8">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="8:8">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="8:8">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="8:8">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="8:8">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="8:8">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="8:8">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="8:8">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="8:8">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="8:8">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="8:8">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="8:8">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="8:8">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="8:8">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="8:8">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31" s="5"/>
     </row>
   </sheetData>
@@ -2381,8 +2415,8 @@
     <mergeCell ref="G1:N4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" display="https://shopenzer.com/"/>
-    <hyperlink ref="G6" r:id="rId2" display="https://shopenzer.com/"/>
+    <hyperlink ref="G7" r:id="rId1" display="https://shopenzer.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G6" r:id="rId2" display="https://shopenzer.com/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
